--- a/80.WBS/WBS.xlsx
+++ b/80.WBS/WBS.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEC0B66-9CE4-4E42-8CDF-A88A2AF84E38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66925F63-E48C-4E5D-ADB6-7BFE9A591FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t>xxxxジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,6 +421,75 @@
     <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="182" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -418,60 +499,66 @@
     <xf numFmtId="182" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="181" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="180" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -481,18 +568,6 @@
     <xf numFmtId="180" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -519,69 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,7 +921,7 @@
   <dimension ref="A1:DB36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7:AH7"/>
+      <selection activeCell="P10" sqref="P10:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.234375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -922,192 +934,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="34" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="31">
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="56">
         <v>44980</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="34" t="s">
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
+      <c r="AB1" s="57"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="61"/>
-      <c r="AI1" s="62"/>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="62"/>
-      <c r="AM1" s="62"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="52" t="s">
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="AP1" s="53"/>
-      <c r="AQ1" s="53"/>
-      <c r="AR1" s="54"/>
-      <c r="AS1" s="61">
+      <c r="AP1" s="14"/>
+      <c r="AQ1" s="14"/>
+      <c r="AR1" s="15"/>
+      <c r="AS1" s="16">
         <v>45055</v>
       </c>
-      <c r="AT1" s="62"/>
-      <c r="AU1" s="62"/>
-      <c r="AV1" s="62"/>
-      <c r="AW1" s="62"/>
-      <c r="AX1" s="62"/>
-      <c r="AY1" s="63"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
+      <c r="AY1" s="18"/>
     </row>
     <row r="2" spans="1:106" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="34" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="34" t="s">
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="57"/>
+      <c r="Y2" s="57"/>
+      <c r="Z2" s="57"/>
+      <c r="AA2" s="57"/>
+      <c r="AB2" s="57"/>
+      <c r="AC2" s="58"/>
+      <c r="AD2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="62"/>
-      <c r="AM2" s="62"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="52" t="s">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="54"/>
-      <c r="AS2" s="61">
+      <c r="AP2" s="14"/>
+      <c r="AQ2" s="14"/>
+      <c r="AR2" s="15"/>
+      <c r="AS2" s="16">
         <v>45273</v>
       </c>
-      <c r="AT2" s="62"/>
-      <c r="AU2" s="62"/>
-      <c r="AV2" s="62"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="63"/>
+      <c r="AT2" s="17"/>
+      <c r="AU2" s="17"/>
+      <c r="AV2" s="17"/>
+      <c r="AW2" s="17"/>
+      <c r="AX2" s="17"/>
+      <c r="AY2" s="18"/>
     </row>
     <row r="4" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="27" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="37" t="s">
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37" t="s">
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37" t="s">
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="37"/>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="52" t="s">
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="55" t="s">
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="64" t="s">
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="56"/>
+      <c r="AL4" s="20"/>
+      <c r="AM4" s="20"/>
+      <c r="AN4" s="21"/>
       <c r="AO4" s="7">
         <f>AS1</f>
         <v>45055</v>
@@ -1368,58 +1380,58 @@
       <c r="DB4" s="3"/>
     </row>
     <row r="5" spans="1:106" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37" t="s">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37" t="s">
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37" t="s">
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="37"/>
-      <c r="AB5" s="37" t="s">
+      <c r="Z5" s="46"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="27" t="s">
+      <c r="AC5" s="46"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AF5" s="47"/>
-      <c r="AG5" s="27" t="s">
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AH5" s="47"/>
-      <c r="AI5" s="57"/>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="57"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="58"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="23"/>
+      <c r="AM5" s="23"/>
+      <c r="AN5" s="24"/>
       <c r="AO5" s="5">
         <f>AS1</f>
         <v>45055</v>
@@ -1678,46 +1690,46 @@
       </c>
     </row>
     <row r="6" spans="1:106" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="37"/>
-      <c r="AE6" s="29"/>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="29"/>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="59"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="59"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="60"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="46"/>
+      <c r="AE6" s="43"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="43"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="27"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="26"/>
+      <c r="AM6" s="26"/>
+      <c r="AN6" s="27"/>
       <c r="AO6" s="6" t="str">
         <f>TEXT(AO5,"aaa")</f>
         <v>火</v>
@@ -1976,46 +1988,48 @@
       </c>
     </row>
     <row r="7" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="10"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="19"/>
-      <c r="AJ7" s="20"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="17"/>
-      <c r="AN7" s="18"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="55"/>
+      <c r="AA7" s="55"/>
+      <c r="AB7" s="55"/>
+      <c r="AC7" s="55"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="34"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="29"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="11"/>
+      <c r="AN7" s="12"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4"/>
       <c r="AQ7" s="4"/>
@@ -2082,46 +2096,48 @@
       <c r="CZ7" s="4"/>
     </row>
     <row r="8" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="10"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="16"/>
-      <c r="AL8" s="17"/>
-      <c r="AM8" s="17"/>
-      <c r="AN8" s="18"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
+      <c r="V8" s="55"/>
+      <c r="W8" s="55"/>
+      <c r="X8" s="55"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="55"/>
+      <c r="AA8" s="55"/>
+      <c r="AB8" s="55"/>
+      <c r="AC8" s="55"/>
+      <c r="AD8" s="55"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="11"/>
+      <c r="AN8" s="12"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4"/>
       <c r="AQ8" s="4"/>
@@ -2188,46 +2204,48 @@
       <c r="CZ8" s="4"/>
     </row>
     <row r="9" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="17"/>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="18"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="55"/>
+      <c r="AB9" s="55"/>
+      <c r="AC9" s="55"/>
+      <c r="AD9" s="55"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="11"/>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="12"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4"/>
       <c r="AQ9" s="4"/>
@@ -2294,46 +2312,46 @@
       <c r="CZ9" s="4"/>
     </row>
     <row r="10" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="10"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="20"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="17"/>
-      <c r="AM10" s="17"/>
-      <c r="AN10" s="18"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
+      <c r="V10" s="55"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="55"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="12"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4"/>
       <c r="AQ10" s="4"/>
@@ -2400,46 +2418,46 @@
       <c r="CZ10" s="4"/>
     </row>
     <row r="11" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="10"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="17"/>
-      <c r="AN11" s="18"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="55"/>
+      <c r="AD11" s="55"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="10"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="11"/>
+      <c r="AN11" s="12"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4"/>
       <c r="AQ11" s="4"/>
@@ -2506,46 +2524,46 @@
       <c r="CZ11" s="4"/>
     </row>
     <row r="12" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="10"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="20"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="17"/>
-      <c r="AM12" s="17"/>
-      <c r="AN12" s="18"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="55"/>
+      <c r="AC12" s="55"/>
+      <c r="AD12" s="55"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="10"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="11"/>
+      <c r="AN12" s="12"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4"/>
       <c r="AQ12" s="4"/>
@@ -2612,46 +2630,46 @@
       <c r="CZ12" s="4"/>
     </row>
     <row r="13" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="10"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="20"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="17"/>
-      <c r="AM13" s="17"/>
-      <c r="AN13" s="18"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
+      <c r="V13" s="55"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="55"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="55"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="55"/>
+      <c r="AC13" s="55"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="33"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="29"/>
+      <c r="AK13" s="10"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="12"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
@@ -2718,46 +2736,46 @@
       <c r="CZ13" s="4"/>
     </row>
     <row r="14" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14" s="13"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="13"/>
-      <c r="AA14" s="13"/>
-      <c r="AB14" s="13"/>
-      <c r="AC14" s="13"/>
-      <c r="AD14" s="13"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="20"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="17"/>
-      <c r="AM14" s="17"/>
-      <c r="AN14" s="18"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="55"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="55"/>
+      <c r="AC14" s="55"/>
+      <c r="AD14" s="55"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="33"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="29"/>
+      <c r="AK14" s="10"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="12"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4"/>
       <c r="AQ14" s="4"/>
@@ -2824,46 +2842,46 @@
       <c r="CZ14" s="4"/>
     </row>
     <row r="15" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="13"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="13"/>
-      <c r="AB15" s="13"/>
-      <c r="AC15" s="13"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="20"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="17"/>
-      <c r="AM15" s="17"/>
-      <c r="AN15" s="18"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="55"/>
+      <c r="AC15" s="55"/>
+      <c r="AD15" s="55"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="33"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="28"/>
+      <c r="AJ15" s="29"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="12"/>
       <c r="AO15" s="4"/>
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
@@ -2930,46 +2948,46 @@
       <c r="CZ15" s="4"/>
     </row>
     <row r="16" spans="1:106" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="10"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="20"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="17"/>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="18"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="55"/>
+      <c r="W16" s="55"/>
+      <c r="X16" s="55"/>
+      <c r="Y16" s="55"/>
+      <c r="Z16" s="55"/>
+      <c r="AA16" s="55"/>
+      <c r="AB16" s="55"/>
+      <c r="AC16" s="55"/>
+      <c r="AD16" s="55"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="33"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="29"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="12"/>
       <c r="AO16" s="4"/>
       <c r="AP16" s="4"/>
       <c r="AQ16" s="4"/>
@@ -3036,46 +3054,46 @@
       <c r="CZ16" s="4"/>
     </row>
     <row r="17" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-      <c r="X17" s="13"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="13"/>
-      <c r="AA17" s="13"/>
-      <c r="AB17" s="13"/>
-      <c r="AC17" s="13"/>
-      <c r="AD17" s="13"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="10"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="20"/>
-      <c r="AK17" s="16"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="18"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" s="55"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="55"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="55"/>
+      <c r="AC17" s="55"/>
+      <c r="AD17" s="55"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="29"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="12"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4"/>
       <c r="AQ17" s="4"/>
@@ -3142,46 +3160,46 @@
       <c r="CZ17" s="4"/>
     </row>
     <row r="18" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="10"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="20"/>
-      <c r="AK18" s="16"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="18"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" s="55"/>
+      <c r="W18" s="55"/>
+      <c r="X18" s="55"/>
+      <c r="Y18" s="55"/>
+      <c r="Z18" s="55"/>
+      <c r="AA18" s="55"/>
+      <c r="AB18" s="55"/>
+      <c r="AC18" s="55"/>
+      <c r="AD18" s="55"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="33"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="29"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="12"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4"/>
       <c r="AQ18" s="4"/>
@@ -3248,46 +3266,46 @@
       <c r="CZ18" s="4"/>
     </row>
     <row r="19" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-      <c r="X19" s="13"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="13"/>
-      <c r="AA19" s="13"/>
-      <c r="AB19" s="13"/>
-      <c r="AC19" s="13"/>
-      <c r="AD19" s="13"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="10"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="20"/>
-      <c r="AK19" s="16"/>
-      <c r="AL19" s="17"/>
-      <c r="AM19" s="17"/>
-      <c r="AN19" s="18"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" s="55"/>
+      <c r="W19" s="55"/>
+      <c r="X19" s="55"/>
+      <c r="Y19" s="55"/>
+      <c r="Z19" s="55"/>
+      <c r="AA19" s="55"/>
+      <c r="AB19" s="55"/>
+      <c r="AC19" s="55"/>
+      <c r="AD19" s="55"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="33"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="29"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="12"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4"/>
       <c r="AQ19" s="4"/>
@@ -3354,46 +3372,46 @@
       <c r="CZ19" s="4"/>
     </row>
     <row r="20" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="10"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="20"/>
-      <c r="AK20" s="16"/>
-      <c r="AL20" s="17"/>
-      <c r="AM20" s="17"/>
-      <c r="AN20" s="18"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
+      <c r="V20" s="55"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="55"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="55"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="55"/>
+      <c r="AC20" s="55"/>
+      <c r="AD20" s="55"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="33"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="11"/>
+      <c r="AN20" s="12"/>
       <c r="AO20" s="4"/>
       <c r="AP20" s="4"/>
       <c r="AQ20" s="4"/>
@@ -3460,46 +3478,46 @@
       <c r="CZ20" s="4"/>
     </row>
     <row r="21" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="13"/>
-      <c r="AC21" s="13"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="20"/>
-      <c r="AK21" s="16"/>
-      <c r="AL21" s="17"/>
-      <c r="AM21" s="17"/>
-      <c r="AN21" s="18"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="55"/>
+      <c r="Z21" s="55"/>
+      <c r="AA21" s="55"/>
+      <c r="AB21" s="55"/>
+      <c r="AC21" s="55"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="34"/>
+      <c r="AG21" s="33"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="29"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="11"/>
+      <c r="AM21" s="11"/>
+      <c r="AN21" s="12"/>
       <c r="AO21" s="4"/>
       <c r="AP21" s="4"/>
       <c r="AQ21" s="4"/>
@@ -3566,46 +3584,46 @@
       <c r="CZ21" s="4"/>
     </row>
     <row r="22" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="10"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="20"/>
-      <c r="AK22" s="16"/>
-      <c r="AL22" s="17"/>
-      <c r="AM22" s="17"/>
-      <c r="AN22" s="18"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55"/>
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="34"/>
+      <c r="AG22" s="33"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="29"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="11"/>
+      <c r="AM22" s="11"/>
+      <c r="AN22" s="12"/>
       <c r="AO22" s="4"/>
       <c r="AP22" s="4"/>
       <c r="AQ22" s="4"/>
@@ -3672,46 +3690,46 @@
       <c r="CZ22" s="4"/>
     </row>
     <row r="23" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="12"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="10"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="20"/>
-      <c r="AK23" s="16"/>
-      <c r="AL23" s="17"/>
-      <c r="AM23" s="17"/>
-      <c r="AN23" s="18"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="55"/>
+      <c r="AC23" s="55"/>
+      <c r="AD23" s="55"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="34"/>
+      <c r="AG23" s="33"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="11"/>
+      <c r="AN23" s="12"/>
       <c r="AO23" s="4"/>
       <c r="AP23" s="4"/>
       <c r="AQ23" s="4"/>
@@ -3778,46 +3796,46 @@
       <c r="CZ23" s="4"/>
     </row>
     <row r="24" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24" s="13"/>
-      <c r="Y24" s="13"/>
-      <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="13"/>
-      <c r="AC24" s="13"/>
-      <c r="AD24" s="13"/>
-      <c r="AE24" s="12"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="10"/>
-      <c r="AH24" s="11"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="20"/>
-      <c r="AK24" s="16"/>
-      <c r="AL24" s="17"/>
-      <c r="AM24" s="17"/>
-      <c r="AN24" s="18"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="55"/>
+      <c r="X24" s="55"/>
+      <c r="Y24" s="55"/>
+      <c r="Z24" s="55"/>
+      <c r="AA24" s="55"/>
+      <c r="AB24" s="55"/>
+      <c r="AC24" s="55"/>
+      <c r="AD24" s="55"/>
+      <c r="AE24" s="35"/>
+      <c r="AF24" s="34"/>
+      <c r="AG24" s="33"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="29"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="12"/>
       <c r="AO24" s="4"/>
       <c r="AP24" s="4"/>
       <c r="AQ24" s="4"/>
@@ -3884,46 +3902,46 @@
       <c r="CZ24" s="4"/>
     </row>
     <row r="25" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="12"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="10"/>
-      <c r="AH25" s="11"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="20"/>
-      <c r="AK25" s="16"/>
-      <c r="AL25" s="17"/>
-      <c r="AM25" s="17"/>
-      <c r="AN25" s="18"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="54"/>
+      <c r="R25" s="54"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="55"/>
+      <c r="AA25" s="55"/>
+      <c r="AB25" s="55"/>
+      <c r="AC25" s="55"/>
+      <c r="AD25" s="55"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="34"/>
+      <c r="AG25" s="33"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="29"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="11"/>
+      <c r="AN25" s="12"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
@@ -3990,46 +4008,46 @@
       <c r="CZ25" s="4"/>
     </row>
     <row r="26" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26" s="13"/>
-      <c r="Y26" s="13"/>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13"/>
-      <c r="AB26" s="13"/>
-      <c r="AC26" s="13"/>
-      <c r="AD26" s="13"/>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="10"/>
-      <c r="AH26" s="11"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="20"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="17"/>
-      <c r="AM26" s="17"/>
-      <c r="AN26" s="18"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="54"/>
+      <c r="R26" s="54"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="55"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="55"/>
+      <c r="AC26" s="55"/>
+      <c r="AD26" s="55"/>
+      <c r="AE26" s="35"/>
+      <c r="AF26" s="34"/>
+      <c r="AG26" s="33"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="29"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="12"/>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -4096,46 +4114,46 @@
       <c r="CZ26" s="4"/>
     </row>
     <row r="27" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="13"/>
-      <c r="AC27" s="13"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="10"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="19"/>
-      <c r="AJ27" s="20"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="17"/>
-      <c r="AM27" s="17"/>
-      <c r="AN27" s="18"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="55"/>
+      <c r="AA27" s="55"/>
+      <c r="AB27" s="55"/>
+      <c r="AC27" s="55"/>
+      <c r="AD27" s="55"/>
+      <c r="AE27" s="35"/>
+      <c r="AF27" s="34"/>
+      <c r="AG27" s="33"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="29"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="12"/>
       <c r="AO27" s="4"/>
       <c r="AP27" s="4"/>
       <c r="AQ27" s="4"/>
@@ -4202,46 +4220,46 @@
       <c r="CZ27" s="4"/>
     </row>
     <row r="28" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="11"/>
-      <c r="AI28" s="19"/>
-      <c r="AJ28" s="20"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="17"/>
-      <c r="AM28" s="17"/>
-      <c r="AN28" s="18"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="55"/>
+      <c r="AA28" s="55"/>
+      <c r="AB28" s="55"/>
+      <c r="AC28" s="55"/>
+      <c r="AD28" s="55"/>
+      <c r="AE28" s="35"/>
+      <c r="AF28" s="34"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="29"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="11"/>
+      <c r="AM28" s="11"/>
+      <c r="AN28" s="12"/>
       <c r="AO28" s="4"/>
       <c r="AP28" s="4"/>
       <c r="AQ28" s="4"/>
@@ -4308,46 +4326,46 @@
       <c r="CZ28" s="4"/>
     </row>
     <row r="29" spans="1:104" ht="18.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="12"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="10"/>
-      <c r="AH29" s="11"/>
-      <c r="AI29" s="19"/>
-      <c r="AJ29" s="20"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="17"/>
-      <c r="AM29" s="17"/>
-      <c r="AN29" s="18"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="54"/>
+      <c r="R29" s="54"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="35"/>
+      <c r="AF29" s="34"/>
+      <c r="AG29" s="33"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="29"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="11"/>
+      <c r="AM29" s="11"/>
+      <c r="AN29" s="12"/>
       <c r="AO29" s="4"/>
       <c r="AP29" s="4"/>
       <c r="AQ29" s="4"/>
@@ -4422,61 +4440,215 @@
     <row r="36" ht="18.75" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="305">
-    <mergeCell ref="AK24:AN24"/>
-    <mergeCell ref="AK25:AN25"/>
-    <mergeCell ref="AK26:AN26"/>
-    <mergeCell ref="AK27:AN27"/>
-    <mergeCell ref="AK28:AN28"/>
-    <mergeCell ref="AK29:AN29"/>
-    <mergeCell ref="AK15:AN15"/>
-    <mergeCell ref="AK16:AN16"/>
-    <mergeCell ref="AK17:AN17"/>
-    <mergeCell ref="AK18:AN18"/>
-    <mergeCell ref="AK19:AN19"/>
-    <mergeCell ref="AK20:AN20"/>
-    <mergeCell ref="AK21:AN21"/>
-    <mergeCell ref="AK22:AN22"/>
-    <mergeCell ref="AK23:AN23"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AS1:AY1"/>
-    <mergeCell ref="AO2:AR2"/>
-    <mergeCell ref="AS2:AY2"/>
-    <mergeCell ref="AH1:AN1"/>
-    <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="AK4:AN6"/>
-    <mergeCell ref="AK7:AN7"/>
-    <mergeCell ref="AK8:AN8"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AD1:AG1"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AI22:AJ22"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="AI4:AJ6"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="H4:O6"/>
-    <mergeCell ref="Y4:AD4"/>
-    <mergeCell ref="Y5:AA6"/>
-    <mergeCell ref="AB5:AD6"/>
-    <mergeCell ref="AE4:AH4"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AG5:AH6"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:X23"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:X27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:X25"/>
+    <mergeCell ref="H26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:X29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:X28"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:X24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:X22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:X21"/>
+    <mergeCell ref="AB21:AD21"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:X20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="H19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:AD19"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:AD20"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H17:O17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:X17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="AK13:AN13"/>
+    <mergeCell ref="AK14:AN14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H16:O16"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:X15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AK11:AN11"/>
+    <mergeCell ref="AK12:AN12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:O13"/>
+    <mergeCell ref="P13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:X13"/>
+    <mergeCell ref="AK9:AN9"/>
+    <mergeCell ref="AK10:AN10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:X12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="P9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:X9"/>
     <mergeCell ref="H1:R2"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:G8"/>
@@ -4501,6 +4673,15 @@
     <mergeCell ref="P4:R6"/>
     <mergeCell ref="S4:X4"/>
     <mergeCell ref="C4:G6"/>
+    <mergeCell ref="H4:O6"/>
+    <mergeCell ref="Y4:AD4"/>
+    <mergeCell ref="Y5:AA6"/>
+    <mergeCell ref="AB5:AD6"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AG5:AH6"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AI27:AJ27"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="AB7:AD7"/>
     <mergeCell ref="Y8:AA8"/>
@@ -4509,224 +4690,61 @@
     <mergeCell ref="AG7:AH7"/>
     <mergeCell ref="AE8:AF8"/>
     <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="P10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:X9"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="AB9:AD9"/>
     <mergeCell ref="Y10:AA10"/>
     <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AK9:AN9"/>
-    <mergeCell ref="AK10:AN10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="P12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:X12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="Y13:AA13"/>
     <mergeCell ref="AB13:AD13"/>
     <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AI22:AJ22"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="AI4:AJ6"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AI9:AJ9"/>
     <mergeCell ref="AB14:AD14"/>
     <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:O13"/>
-    <mergeCell ref="P13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:X13"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AK11:AN11"/>
-    <mergeCell ref="AK12:AN12"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H17:O17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:X17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="AK13:AN13"/>
-    <mergeCell ref="AK14:AN14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H16:O16"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H15:O15"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:X15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:X20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:AD19"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:AD20"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:X21"/>
-    <mergeCell ref="AB21:AD21"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:X18"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:X24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:X22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="H29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:X29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:X28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:X27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:X25"/>
-    <mergeCell ref="H26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:X23"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AO1:AR1"/>
+    <mergeCell ref="AS1:AY1"/>
+    <mergeCell ref="AO2:AR2"/>
+    <mergeCell ref="AS2:AY2"/>
+    <mergeCell ref="AH1:AN1"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="AK4:AN6"/>
+    <mergeCell ref="AK7:AN7"/>
+    <mergeCell ref="AK8:AN8"/>
+    <mergeCell ref="AK24:AN24"/>
+    <mergeCell ref="AK25:AN25"/>
+    <mergeCell ref="AK26:AN26"/>
+    <mergeCell ref="AK27:AN27"/>
+    <mergeCell ref="AK28:AN28"/>
+    <mergeCell ref="AK29:AN29"/>
+    <mergeCell ref="AK15:AN15"/>
+    <mergeCell ref="AK16:AN16"/>
+    <mergeCell ref="AK17:AN17"/>
+    <mergeCell ref="AK18:AN18"/>
+    <mergeCell ref="AK19:AN19"/>
+    <mergeCell ref="AK20:AN20"/>
+    <mergeCell ref="AK21:AN21"/>
+    <mergeCell ref="AK22:AN22"/>
+    <mergeCell ref="AK23:AN23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AP5:CZ6">
